--- a/swings/2021-11-22/BINANCE_SPOT_DATA_USDT.xlsx
+++ b/swings/2021-11-22/BINANCE_SPOT_DATA_USDT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N145"/>
+  <dimension ref="A1:O145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,11 @@
           <t>SymbolDb</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>swing_price</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -551,6 +556,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -605,6 +611,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O3" t="n">
+        <v>0.13951</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -657,6 +666,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -711,6 +721,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O5" t="n">
+        <v>0.14099</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -765,6 +778,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O6" t="n">
+        <v>0.13944</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -819,6 +835,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O7" t="n">
+        <v>0.14021</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -871,6 +890,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -923,6 +943,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -977,6 +998,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O10" t="n">
+        <v>0.138</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1031,6 +1055,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O11" t="n">
+        <v>0.1401</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1083,6 +1110,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1137,6 +1165,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O13" t="n">
+        <v>0.13918</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1189,6 +1220,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1243,6 +1275,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O15" t="n">
+        <v>0.14008</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1297,6 +1332,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O16" t="n">
+        <v>0.13735</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1349,6 +1387,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1401,6 +1440,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1455,6 +1495,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O19" t="n">
+        <v>0.1387</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1507,6 +1550,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1559,6 +1603,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1611,6 +1656,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1665,6 +1711,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O23" t="n">
+        <v>0.1356</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1719,6 +1768,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O24" t="n">
+        <v>0.13754</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1773,6 +1825,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O25" t="n">
+        <v>0.13614</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1825,6 +1880,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1879,6 +1935,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O27" t="n">
+        <v>0.1371</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1933,6 +1992,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O28" t="n">
+        <v>0.13636</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1985,6 +2047,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2039,6 +2102,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O30" t="n">
+        <v>0.13702</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2091,6 +2157,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2143,6 +2210,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2197,6 +2265,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O33" t="n">
+        <v>0.13462</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2249,6 +2320,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2301,6 +2373,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2353,6 +2426,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2407,6 +2481,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O37" t="n">
+        <v>0.13689</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2461,6 +2538,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O38" t="n">
+        <v>0.13513</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2515,6 +2595,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O39" t="n">
+        <v>0.13605</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2569,6 +2652,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O40" t="n">
+        <v>0.13572</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2623,6 +2709,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O41" t="n">
+        <v>0.1366</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2677,6 +2766,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O42" t="n">
+        <v>0.1356</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2729,6 +2821,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2783,6 +2876,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O44" t="n">
+        <v>0.1377</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2835,6 +2931,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2889,6 +2986,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O46" t="n">
+        <v>0.1366</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2941,6 +3041,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2993,6 +3094,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3047,6 +3149,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O49" t="n">
+        <v>0.13752</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3101,6 +3206,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O50" t="n">
+        <v>0.137</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3153,6 +3261,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3205,6 +3314,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3257,6 +3367,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3309,6 +3420,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3361,6 +3473,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3413,6 +3526,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3467,6 +3581,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O57" t="n">
+        <v>0.14037</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3521,6 +3638,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O58" t="n">
+        <v>0.1375</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3575,6 +3695,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O59" t="n">
+        <v>0.1386</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3627,6 +3750,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3679,6 +3803,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3733,6 +3858,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O62" t="n">
+        <v>0.13608</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3785,6 +3913,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3837,6 +3966,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3891,6 +4021,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O65" t="n">
+        <v>0.14024</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3945,6 +4078,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O66" t="n">
+        <v>0.13902</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3997,6 +4133,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -4049,6 +4186,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -4103,6 +4241,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O69" t="n">
+        <v>0.14037</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -4155,6 +4296,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -4209,6 +4351,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O71" t="n">
+        <v>0.13936</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4263,6 +4408,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O72" t="n">
+        <v>0.14019</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4315,6 +4463,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4367,6 +4516,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4421,6 +4571,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O75" t="n">
+        <v>0.1383</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4473,6 +4626,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4527,6 +4681,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O77" t="n">
+        <v>0.14125</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4581,6 +4738,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O78" t="n">
+        <v>0.13888</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4633,6 +4793,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4687,6 +4848,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O80" t="n">
+        <v>0.13988</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4741,6 +4905,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O81" t="n">
+        <v>0.136</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4793,6 +4960,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4845,6 +5013,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4899,6 +5068,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O84" t="n">
+        <v>0.14111</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4953,6 +5125,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O85" t="n">
+        <v>0.13906</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -5007,6 +5182,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O86" t="n">
+        <v>0.14088</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -5059,6 +5237,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -5113,6 +5292,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O88" t="n">
+        <v>0.13901</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -5165,6 +5347,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -5217,6 +5400,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -5269,6 +5453,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -5323,6 +5508,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O92" t="n">
+        <v>0.14146</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -5377,6 +5565,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O93" t="n">
+        <v>0.1403</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -5431,6 +5622,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O94" t="n">
+        <v>0.1414</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -5483,6 +5677,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -5537,6 +5732,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O96" t="n">
+        <v>0.14033</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -5589,6 +5787,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -5643,6 +5842,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O98" t="n">
+        <v>0.14131</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -5697,6 +5899,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O99" t="n">
+        <v>0.13957</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -5749,6 +5954,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -5803,6 +6009,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O101" t="n">
+        <v>0.14069</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5855,6 +6064,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -5907,6 +6117,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5961,6 +6172,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O104" t="n">
+        <v>0.13837</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -6015,6 +6229,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O105" t="n">
+        <v>0.13961</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -6067,6 +6284,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -6121,6 +6339,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O107" t="n">
+        <v>0.13788</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -6173,6 +6394,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -6225,6 +6447,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -6279,6 +6502,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O110" t="n">
+        <v>0.1386</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -6333,6 +6559,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O111" t="n">
+        <v>0.13784</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -6387,6 +6616,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O112" t="n">
+        <v>0.13822</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -6439,6 +6671,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -6491,6 +6724,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -6543,6 +6777,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -6595,6 +6830,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -6647,6 +6883,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -6699,6 +6936,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -6753,6 +6991,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O119" t="n">
+        <v>0.13547</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -6807,6 +7048,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O120" t="n">
+        <v>0.13662</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -6859,6 +7103,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -6913,6 +7158,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O122" t="n">
+        <v>0.13549</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -6967,6 +7215,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O123" t="n">
+        <v>0.13673</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -7019,6 +7270,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -7071,6 +7323,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -7123,6 +7376,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -7175,6 +7429,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -7227,6 +7482,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -7281,6 +7537,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O129" t="n">
+        <v>0.13427</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -7333,6 +7592,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -7387,6 +7647,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O131" t="n">
+        <v>0.13635</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -7441,6 +7704,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O132" t="n">
+        <v>0.13497</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -7493,6 +7759,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -7547,6 +7814,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O134" t="n">
+        <v>0.13675</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -7599,6 +7869,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -7653,6 +7924,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O136" t="n">
+        <v>0.13597</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -7705,6 +7979,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -7759,6 +8034,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O138" t="n">
+        <v>0.13779</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -7811,6 +8089,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -7865,6 +8144,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O140" t="n">
+        <v>0.13587</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -7917,6 +8199,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -7971,6 +8254,9 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O142" t="n">
+        <v>0.13649</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -8023,6 +8309,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -8075,6 +8362,7 @@
           <t>DATABUSD</t>
         </is>
       </c>
+      <c r="O144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -8128,6 +8416,9 @@
         <is>
           <t>DATABUSD</t>
         </is>
+      </c>
+      <c r="O145" t="n">
+        <v>0.13538</v>
       </c>
     </row>
   </sheetData>
